--- a/レポート.xlsx
+++ b/レポート.xlsx
@@ -439,7 +439,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>報告日：2025年08月04日</t>
+          <t>報告日：2025年08月06日</t>
         </is>
       </c>
       <c r="B2" s="1" t="n"/>
@@ -514,7 +514,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>報告日：2025年08月04日</t>
+          <t>報告日：2025年08月06日</t>
         </is>
       </c>
       <c r="B2" s="1" t="n"/>
